--- a/biology/Botanique/Liste_des_espèces_d'arbres_de_la_forêt_métropolitaine_française/Liste_des_espèces_d'arbres_de_la_forêt_métropolitaine_française.xlsx
+++ b/biology/Botanique/Liste_des_espèces_d'arbres_de_la_forêt_métropolitaine_française/Liste_des_espèces_d'arbres_de_la_forêt_métropolitaine_française.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27arbres_de_la_for%C3%AAt_m%C3%A9tropolitaine_fran%C3%A7aise</t>
+          <t>Liste_des_espèces_d'arbres_de_la_forêt_métropolitaine_française</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article liste les 191 espèces d'arbres recensées par l'inventaire forestier de 2015[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article liste les 191 espèces d'arbres recensées par l'inventaire forestier de 2015.
 Abricotier
 Ailante
 Alisier blanc
@@ -674,7 +686,7 @@
 Tsuga hétérophylle
 Tulipier de Virginie
 Vernis vrai
-Le GlobalTreeSearch recense 125 espèces indigènes d'arbres et arbustes[2] :
+Le GlobalTreeSearch recense 125 espèces indigènes d'arbres et arbustes :
 Cotinus coggygria Scop.
 Pistacia lentiscus L.
 Pistacia terebinthus L.
